--- a/4.MONITORING AND CONTROLLING PHASE/Testing and Evaluating/User PHP/USER PHP TESTING.xlsx
+++ b/4.MONITORING AND CONTROLLING PHASE/Testing and Evaluating/User PHP/USER PHP TESTING.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Final\Montitoring and Controlling\Testing and Evaluation\User PHP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Portfolio Team Project\Team-Portfolio\4.MONITORING AND CONTROLLING PHASE\Testing and Evaluating\User PHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -203,9 +203,6 @@
     <t>Invalid Username/Email</t>
   </si>
   <si>
-    <t>Red error message is shown displaying invalid email or passowrd</t>
-  </si>
-  <si>
     <t>Remember Me</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
     <t>User inputs contact number greater or less than 10 digits</t>
   </si>
   <si>
-    <t>Red error message appears instrcuting user to enter contact number that is 10 digits long</t>
-  </si>
-  <si>
     <t>User enters an email address which is already used by existing user</t>
   </si>
   <si>
@@ -357,6 +351,12 @@
   </si>
   <si>
     <t xml:space="preserve">User inputs password that is greater than 8 characters </t>
+  </si>
+  <si>
+    <t>Red error message appears instructing user to enter contact number that is 10 digits long</t>
+  </si>
+  <si>
+    <t>Red error message is shown displaying invalid email or password</t>
   </si>
 </sst>
 </file>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="71" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -775,18 +775,18 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -794,13 +794,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -808,13 +808,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -822,13 +822,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -836,13 +836,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
         <v>99</v>
-      </c>
-      <c r="B8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -850,13 +850,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
         <v>87</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -864,13 +864,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
         <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" t="s">
-        <v>92</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -878,13 +878,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
         <v>93</v>
-      </c>
-      <c r="B11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" t="s">
-        <v>95</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -892,13 +892,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
         <v>93</v>
-      </c>
-      <c r="B12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -906,13 +906,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
         <v>96</v>
-      </c>
-      <c r="B13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -923,10 +923,10 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -956,10 +956,10 @@
         <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -967,13 +967,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -981,13 +981,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -995,13 +995,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
         <v>65</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
         <v>103</v>
-      </c>
-      <c r="B22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" t="s">
-        <v>105</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1098,7 +1098,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1181,7 +1181,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -1220,7 +1220,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
@@ -1243,12 +1243,12 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -1267,7 +1267,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">

--- a/4.MONITORING AND CONTROLLING PHASE/Testing and Evaluating/User PHP/USER PHP TESTING.xlsx
+++ b/4.MONITORING AND CONTROLLING PHASE/Testing and Evaluating/User PHP/USER PHP TESTING.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="114">
   <si>
     <t>Test Case</t>
   </si>
@@ -357,6 +357,15 @@
   </si>
   <si>
     <t>Red error message is shown displaying invalid email or password</t>
+  </si>
+  <si>
+    <t>User can check the products they have ordered</t>
+  </si>
+  <si>
+    <t>Log Out</t>
+  </si>
+  <si>
+    <t>Click on the log out button on top right of the navigation bar</t>
   </si>
 </sst>
 </file>
@@ -745,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="71" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="81" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1076,7 +1085,7 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -1090,40 +1099,40 @@
         <v>17</v>
       </c>
       <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
         <v>19</v>
       </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -1131,13 +1140,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -1145,13 +1154,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -1159,13 +1168,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -1173,43 +1182,40 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
@@ -1217,13 +1223,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
@@ -1231,70 +1237,84 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>20</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>21</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>22</v>
       </c>
-      <c r="D51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>46</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>47</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>49</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>4</v>
       </c>
     </row>

--- a/4.MONITORING AND CONTROLLING PHASE/Testing and Evaluating/User PHP/USER PHP TESTING.xlsx
+++ b/4.MONITORING AND CONTROLLING PHASE/Testing and Evaluating/User PHP/USER PHP TESTING.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="128">
   <si>
     <t>Test Case</t>
   </si>
@@ -366,6 +366,48 @@
   </si>
   <si>
     <t>Click on the log out button on top right of the navigation bar</t>
+  </si>
+  <si>
+    <t>PayPal Login</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the checkout button </t>
+  </si>
+  <si>
+    <t>Paypal Payment</t>
+  </si>
+  <si>
+    <t>Once the user checksout, they are directed to Paypal login</t>
+  </si>
+  <si>
+    <t>Collection Slot</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Once the payment is done they will receive an invoice</t>
+  </si>
+  <si>
+    <t>The user will receive their invoice in their mail address</t>
+  </si>
+  <si>
+    <t>User is asked to enter their paypal details</t>
+  </si>
+  <si>
+    <t>User is directed to paypal login after proceeding to checkout</t>
+  </si>
+  <si>
+    <t>User is prompted to complete the purchase</t>
+  </si>
+  <si>
+    <t>User is directeed to payment after logging in to Paypal</t>
+  </si>
+  <si>
+    <t>User can check all the review  a particular product has</t>
   </si>
 </sst>
 </file>
@@ -409,12 +451,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="81" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1174,7 +1217,7 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -1188,7 +1231,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -1201,6 +1244,9 @@
       <c r="B38" t="s">
         <v>41</v>
       </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
@@ -1249,72 +1295,134 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
         <v>79</v>
       </c>
     </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>80</v>
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>20</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" t="s">
         <v>21</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C55" t="s">
         <v>22</v>
       </c>
-      <c r="D52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>44</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" t="s">
         <v>45</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C59" t="s">
         <v>48</v>
       </c>
-      <c r="D56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>46</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B60" t="s">
         <v>47</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C60" t="s">
         <v>49</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D60" t="s">
         <v>4</v>
       </c>
     </row>

--- a/4.MONITORING AND CONTROLLING PHASE/Testing and Evaluating/User PHP/USER PHP TESTING.xlsx
+++ b/4.MONITORING AND CONTROLLING PHASE/Testing and Evaluating/User PHP/USER PHP TESTING.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Portfolio Team Project\Team-Portfolio\4.MONITORING AND CONTROLLING PHASE\Testing and Evaluating\User PHP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Team-Portfolio\4.MONITORING AND CONTROLLING PHASE\Testing and Evaluating\User PHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7030" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="130">
   <si>
     <t>Test Case</t>
   </si>
@@ -408,6 +408,12 @@
   </si>
   <si>
     <t>User can check all the review  a particular product has</t>
+  </si>
+  <si>
+    <t>Select date from collection slot</t>
+  </si>
+  <si>
+    <t>Collection Date are only shown that are ahead by 24 hours</t>
   </si>
 </sst>
 </file>
@@ -799,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1319,7 +1325,12 @@
       <c r="A47" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="D47" t="s">
         <v>4</v>
       </c>
